--- a/Demo1_projectdb/TestCases/Signup.xlsx
+++ b/Demo1_projectdb/TestCases/Signup.xlsx
@@ -16,9 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
   <si>
-    <t>$NULL$</t>
-  </si>
-  <si>
     <t>TC001</t>
   </si>
   <si>
@@ -32,6 +29,9 @@
   </si>
   <si>
     <t>TCIteration</t>
+  </si>
+  <si>
+    <t>abc@gmai.com</t>
   </si>
 </sst>
 </file>
@@ -728,23 +728,23 @@
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="16"/>
     </row>
     <row r="2" ht="25" customHeight="1">
       <c r="A2" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>4</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="16"/>
@@ -758,7 +758,7 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="15" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F3" s="14"/>
     </row>

--- a/Demo1_projectdb/TestCases/Signup.xlsx
+++ b/Demo1_projectdb/TestCases/Signup.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>TC001</t>
   </si>
   <si>
     <t>xyz@gmail.com</t>
+  </si>
+  <si>
+    <t>FALSE</t>
   </si>
   <si>
     <t>Selection</t>
@@ -38,6 +41,9 @@
   </si>
   <si>
     <t>abc@gmai.com</t>
+  </si>
+  <si>
+    <t>abc@gamil.com</t>
   </si>
 </sst>
 </file>
@@ -744,16 +750,16 @@
     </row>
     <row r="2" ht="25" customHeight="1">
       <c r="A2" s="16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -769,7 +775,7 @@
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H3" s="6"/>
     </row>
@@ -778,7 +784,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="15" t="s">
@@ -790,20 +796,29 @@
       <c r="H4" s="6"/>
     </row>
     <row r="5" s="11" customFormat="1">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="15"/>
+      <c r="D5" s="15" t="s">
+        <v>9</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6">
+    <row r="6" s="11" customFormat="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="15"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
       <c r="H6" s="6"/>
     </row>
     <row r="7">
